--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.334389333333333</v>
+        <v>4.617566333333333</v>
       </c>
       <c r="H2">
-        <v>19.003168</v>
+        <v>13.852699</v>
       </c>
       <c r="I2">
-        <v>0.1087186954512644</v>
+        <v>0.07434710147987492</v>
       </c>
       <c r="J2">
-        <v>0.1087186954512644</v>
+        <v>0.0743471014798749</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N2">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O2">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P2">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q2">
-        <v>59.92435137586845</v>
+        <v>19.75344238089212</v>
       </c>
       <c r="R2">
-        <v>539.319162382816</v>
+        <v>177.780981428029</v>
       </c>
       <c r="S2">
-        <v>0.008911698558592255</v>
+        <v>0.003065596729393732</v>
       </c>
       <c r="T2">
-        <v>0.008911698558592253</v>
+        <v>0.003065596729393731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.334389333333333</v>
+        <v>4.617566333333333</v>
       </c>
       <c r="H3">
-        <v>19.003168</v>
+        <v>13.852699</v>
       </c>
       <c r="I3">
-        <v>0.1087186954512644</v>
+        <v>0.07434710147987492</v>
       </c>
       <c r="J3">
-        <v>0.1087186954512644</v>
+        <v>0.0743471014798749</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>138.547699</v>
       </c>
       <c r="O3">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P3">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q3">
-        <v>292.5383555678258</v>
+        <v>213.2510634877335</v>
       </c>
       <c r="R3">
-        <v>2632.845200110432</v>
+        <v>1919.259571389601</v>
       </c>
       <c r="S3">
-        <v>0.0435050790169518</v>
+        <v>0.03309508034913995</v>
       </c>
       <c r="T3">
-        <v>0.0435050790169518</v>
+        <v>0.03309508034913993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.334389333333333</v>
+        <v>4.617566333333333</v>
       </c>
       <c r="H4">
-        <v>19.003168</v>
+        <v>13.852699</v>
       </c>
       <c r="I4">
-        <v>0.1087186954512644</v>
+        <v>0.07434710147987492</v>
       </c>
       <c r="J4">
-        <v>0.1087186954512644</v>
+        <v>0.0743471014798749</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N4">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O4">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P4">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q4">
-        <v>52.98911354232177</v>
+        <v>39.51781300210644</v>
       </c>
       <c r="R4">
-        <v>476.9020218808959</v>
+        <v>355.660317018958</v>
       </c>
       <c r="S4">
-        <v>0.007880319034481106</v>
+        <v>0.006132889445600486</v>
       </c>
       <c r="T4">
-        <v>0.007880319034481106</v>
+        <v>0.006132889445600485</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.334389333333333</v>
+        <v>4.617566333333333</v>
       </c>
       <c r="H5">
-        <v>19.003168</v>
+        <v>13.852699</v>
       </c>
       <c r="I5">
-        <v>0.1087186954512644</v>
+        <v>0.07434710147987492</v>
       </c>
       <c r="J5">
-        <v>0.1087186954512644</v>
+        <v>0.0743471014798749</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N5">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O5">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P5">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q5">
-        <v>325.5981880520569</v>
+        <v>206.5397740613309</v>
       </c>
       <c r="R5">
-        <v>2930.383692468512</v>
+        <v>1858.857966551978</v>
       </c>
       <c r="S5">
-        <v>0.04842159884123924</v>
+        <v>0.03205353495574076</v>
       </c>
       <c r="T5">
-        <v>0.04842159884123924</v>
+        <v>0.03205353495574075</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>76.449617</v>
       </c>
       <c r="I6">
-        <v>0.4373745802799199</v>
+        <v>0.4103032508824865</v>
       </c>
       <c r="J6">
-        <v>0.4373745802799199</v>
+        <v>0.4103032508824864</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N6">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O6">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P6">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q6">
-        <v>241.0752623803866</v>
+        <v>109.0143591837786</v>
       </c>
       <c r="R6">
-        <v>2169.677361423479</v>
+        <v>981.1292326540072</v>
       </c>
       <c r="S6">
-        <v>0.03585170333829759</v>
+        <v>0.01691826956166473</v>
       </c>
       <c r="T6">
-        <v>0.03585170333829759</v>
+        <v>0.01691826956166472</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>76.449617</v>
       </c>
       <c r="I7">
-        <v>0.4373745802799199</v>
+        <v>0.4103032508824865</v>
       </c>
       <c r="J7">
-        <v>0.4373745802799199</v>
+        <v>0.4103032508824864</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>138.547699</v>
       </c>
       <c r="O7">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P7">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q7">
         <v>1176.879836086809</v>
@@ -883,10 +883,10 @@
         <v>10591.91852478128</v>
       </c>
       <c r="S7">
-        <v>0.1750206401585621</v>
+        <v>0.182643556845924</v>
       </c>
       <c r="T7">
-        <v>0.1750206401585621</v>
+        <v>0.1826435568459239</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>76.449617</v>
       </c>
       <c r="I8">
-        <v>0.4373745802799199</v>
+        <v>0.4103032508824865</v>
       </c>
       <c r="J8">
-        <v>0.4373745802799199</v>
+        <v>0.4103032508824864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N8">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O8">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P8">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q8">
-        <v>213.1748472402082</v>
+        <v>218.0890286209682</v>
       </c>
       <c r="R8">
-        <v>1918.573625161874</v>
+        <v>1962.801257588714</v>
       </c>
       <c r="S8">
-        <v>0.03170247045249983</v>
+        <v>0.03384589885476465</v>
       </c>
       <c r="T8">
-        <v>0.03170247045249984</v>
+        <v>0.03384589885476465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>76.449617</v>
       </c>
       <c r="I9">
-        <v>0.4373745802799199</v>
+        <v>0.4103032508824865</v>
       </c>
       <c r="J9">
-        <v>0.4373745802799199</v>
+        <v>0.4103032508824864</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N9">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O9">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P9">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q9">
-        <v>1309.879319725728</v>
+        <v>1139.84189090193</v>
       </c>
       <c r="R9">
-        <v>11788.91387753155</v>
+        <v>10258.57701811737</v>
       </c>
       <c r="S9">
-        <v>0.1947997663305604</v>
+        <v>0.1768955256201331</v>
       </c>
       <c r="T9">
-        <v>0.1947997663305605</v>
+        <v>0.1768955256201331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.40889</v>
+        <v>31.94872733333333</v>
       </c>
       <c r="H10">
-        <v>79.22667000000001</v>
+        <v>95.846182</v>
       </c>
       <c r="I10">
-        <v>0.4532623301203161</v>
+        <v>0.5144041474959183</v>
       </c>
       <c r="J10">
-        <v>0.4532623301203161</v>
+        <v>0.5144041474959181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N10">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O10">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P10">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q10">
-        <v>249.8323864431434</v>
+        <v>136.6731518215691</v>
       </c>
       <c r="R10">
-        <v>2248.491477988291</v>
+        <v>1230.058366394122</v>
       </c>
       <c r="S10">
-        <v>0.03715402615190606</v>
+        <v>0.02121072161201773</v>
       </c>
       <c r="T10">
-        <v>0.03715402615190606</v>
+        <v>0.02121072161201772</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.40889</v>
+        <v>31.94872733333333</v>
       </c>
       <c r="H11">
-        <v>79.22667000000001</v>
+        <v>95.846182</v>
       </c>
       <c r="I11">
-        <v>0.4532623301203161</v>
+        <v>0.5144041474959183</v>
       </c>
       <c r="J11">
-        <v>0.4532623301203161</v>
+        <v>0.5144041474959181</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>138.547699</v>
       </c>
       <c r="O11">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P11">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q11">
-        <v>1219.630314214704</v>
+        <v>1475.474219337246</v>
       </c>
       <c r="R11">
-        <v>10976.67282793233</v>
+        <v>13279.26797403522</v>
       </c>
       <c r="S11">
-        <v>0.1813783122161507</v>
+        <v>0.2289833262419324</v>
       </c>
       <c r="T11">
-        <v>0.1813783122161507</v>
+        <v>0.2289833262419322</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.40889</v>
+        <v>31.94872733333333</v>
       </c>
       <c r="H12">
-        <v>79.22667000000001</v>
+        <v>95.846182</v>
       </c>
       <c r="I12">
-        <v>0.4532623301203161</v>
+        <v>0.5144041474959183</v>
       </c>
       <c r="J12">
-        <v>0.4532623301203161</v>
+        <v>0.5144041474959181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N12">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O12">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P12">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q12">
-        <v>220.9184811821933</v>
+        <v>273.4219156311604</v>
       </c>
       <c r="R12">
-        <v>1988.26633063974</v>
+        <v>2460.797240680444</v>
       </c>
       <c r="S12">
-        <v>0.03285407126009481</v>
+        <v>0.04243317767814801</v>
       </c>
       <c r="T12">
-        <v>0.03285407126009481</v>
+        <v>0.042433177678148</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.40889</v>
+        <v>31.94872733333333</v>
       </c>
       <c r="H13">
-        <v>79.22667000000001</v>
+        <v>95.846182</v>
       </c>
       <c r="I13">
-        <v>0.4532623301203161</v>
+        <v>0.5144041474959183</v>
       </c>
       <c r="J13">
-        <v>0.4532623301203161</v>
+        <v>0.5144041474959181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N13">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O13">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P13">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q13">
-        <v>1357.461040043337</v>
+        <v>1429.039119013645</v>
       </c>
       <c r="R13">
-        <v>12217.14936039003</v>
+        <v>12861.3520711228</v>
       </c>
       <c r="S13">
-        <v>0.2018759204921645</v>
+        <v>0.2217769219638202</v>
       </c>
       <c r="T13">
-        <v>0.2018759204921645</v>
+        <v>0.2217769219638201</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.037545</v>
+        <v>0.05872333333333333</v>
       </c>
       <c r="H14">
-        <v>0.112635</v>
+        <v>0.17617</v>
       </c>
       <c r="I14">
-        <v>0.0006443941484995116</v>
+        <v>0.0009455001417203652</v>
       </c>
       <c r="J14">
-        <v>0.0006443941484995116</v>
+        <v>0.000945500141720365</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.460162333333335</v>
+        <v>4.277890333333334</v>
       </c>
       <c r="N14">
-        <v>28.380487</v>
+        <v>12.833671</v>
       </c>
       <c r="O14">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337639</v>
       </c>
       <c r="P14">
-        <v>0.08197024919772997</v>
+        <v>0.04123357425337638</v>
       </c>
       <c r="Q14">
-        <v>0.3551817948050001</v>
+        <v>0.2512119800077778</v>
       </c>
       <c r="R14">
-        <v>3.196636153245001</v>
+        <v>2.26090782007</v>
       </c>
       <c r="S14">
-        <v>5.282114893406398E-05</v>
+        <v>3.898635030020458E-05</v>
       </c>
       <c r="T14">
-        <v>5.282114893406398E-05</v>
+        <v>3.898635030020456E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.037545</v>
+        <v>0.05872333333333333</v>
       </c>
       <c r="H15">
-        <v>0.112635</v>
+        <v>0.17617</v>
       </c>
       <c r="I15">
-        <v>0.0006443941484995116</v>
+        <v>0.0009455001417203652</v>
       </c>
       <c r="J15">
-        <v>0.0006443941484995116</v>
+        <v>0.000945500141720365</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>138.547699</v>
       </c>
       <c r="O15">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610328</v>
       </c>
       <c r="P15">
-        <v>0.4001618933742075</v>
+        <v>0.4451428460610327</v>
       </c>
       <c r="Q15">
-        <v>1.733924452985</v>
+        <v>2.711994236981111</v>
       </c>
       <c r="R15">
-        <v>15.605320076865</v>
+        <v>24.40794813283</v>
       </c>
       <c r="S15">
-        <v>0.0002578619825428248</v>
+        <v>0.0004208826240365132</v>
       </c>
       <c r="T15">
-        <v>0.0002578619825428248</v>
+        <v>0.000420882624036513</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.037545</v>
+        <v>0.05872333333333333</v>
       </c>
       <c r="H16">
-        <v>0.112635</v>
+        <v>0.17617</v>
       </c>
       <c r="I16">
-        <v>0.0006443941484995116</v>
+        <v>0.0009455001417203652</v>
       </c>
       <c r="J16">
-        <v>0.0006443941484995116</v>
+        <v>0.000945500141720365</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.365307333333332</v>
+        <v>8.558147333333332</v>
       </c>
       <c r="N16">
-        <v>25.095922</v>
+        <v>25.674442</v>
       </c>
       <c r="O16">
-        <v>0.0724835687346307</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="P16">
-        <v>0.07248356873463072</v>
+        <v>0.08248996024761777</v>
       </c>
       <c r="Q16">
-        <v>0.31407546383</v>
+        <v>0.502562938571111</v>
       </c>
       <c r="R16">
-        <v>2.82667917447</v>
+        <v>4.52306644714</v>
       </c>
       <c r="S16">
-        <v>4.670798755495817E-05</v>
+        <v>7.79942691046299E-05</v>
       </c>
       <c r="T16">
-        <v>4.670798755495818E-05</v>
+        <v>7.799426910462988E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.037545</v>
+        <v>0.05872333333333333</v>
       </c>
       <c r="H17">
-        <v>0.112635</v>
+        <v>0.17617</v>
       </c>
       <c r="I17">
-        <v>0.0006443941484995116</v>
+        <v>0.0009455001417203652</v>
       </c>
       <c r="J17">
-        <v>0.0006443941484995116</v>
+        <v>0.000945500141720365</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.40166966666666</v>
+        <v>44.72914066666667</v>
       </c>
       <c r="N17">
-        <v>154.205009</v>
+        <v>134.187422</v>
       </c>
       <c r="O17">
-        <v>0.4453842886934318</v>
+        <v>0.4311336194379731</v>
       </c>
       <c r="P17">
-        <v>0.4453842886934319</v>
+        <v>0.431133619437973</v>
       </c>
       <c r="Q17">
-        <v>1.929875687635</v>
+        <v>2.626644237082222</v>
       </c>
       <c r="R17">
-        <v>17.368881188715</v>
+        <v>23.63979813374</v>
       </c>
       <c r="S17">
-        <v>0.0002870030294676647</v>
+        <v>0.0004076368982790175</v>
       </c>
       <c r="T17">
-        <v>0.0002870030294676647</v>
+        <v>0.0004076368982790174</v>
       </c>
     </row>
   </sheetData>
